--- a/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6ACCB6-80DF-4D35-9C21-11AAF230A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB2D4FC8-B210-43D4-AC02-49EE776FF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BB46C20-1A54-4D46-A24E-99870CB19344}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{995E3D4C-A409-4705-BF0A-F55BBA350470}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>62,92%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>37,08%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>42,65%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>77,98%</t>
   </si>
   <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,7 +196,7 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>69,52%</t>
+    <t>67,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -205,19 +205,19 @@
     <t>58,98%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>7,22%</t>
@@ -226,25 +226,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>30,48%</t>
+    <t>32,87%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -253,1243 +253,1237 @@
     <t>67,59%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>53,91%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>66,09%</t>
   </si>
   <si>
-    <t>87,93%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>45,46%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
   </si>
   <si>
     <t>46,01%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>52,67%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>53,99%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
   </si>
   <si>
     <t>64,21%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C2012C-AAFD-4A0B-8611-0EE510997189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633E52AF-7293-4012-A7A1-6EE3B798220C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2678,10 +2672,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2690,13 @@
         <v>5387</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2711,13 +2705,13 @@
         <v>6022</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2726,13 +2720,13 @@
         <v>11409</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2782,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2800,13 +2794,13 @@
         <v>11589</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2815,13 +2809,13 @@
         <v>11508</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2830,13 +2824,13 @@
         <v>23097</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2845,13 @@
         <v>5020</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2866,13 +2860,13 @@
         <v>4294</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2881,13 +2875,13 @@
         <v>9314</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2937,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2955,13 +2949,13 @@
         <v>38982</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2970,13 +2964,13 @@
         <v>33338</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -2985,13 +2979,13 @@
         <v>72320</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3000,13 @@
         <v>8964</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3021,13 +3015,13 @@
         <v>5222</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3036,13 +3030,13 @@
         <v>14186</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3092,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3110,13 +3104,13 @@
         <v>46583</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3125,13 +3119,13 @@
         <v>51590</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -3140,13 +3134,13 @@
         <v>98173</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3155,13 @@
         <v>14969</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3176,13 +3170,13 @@
         <v>18498</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -3191,13 +3185,13 @@
         <v>33467</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3259,13 @@
         <v>170424</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -3280,13 +3274,13 @@
         <v>158002</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>321</v>
@@ -3295,13 +3289,13 @@
         <v>328425</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3310,13 @@
         <v>56296</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -3331,13 +3325,13 @@
         <v>58146</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -3346,13 +3340,13 @@
         <v>114443</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3402,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3432,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4FCF1-E3D5-48F4-A1A2-60990718538E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EDD17-93E4-4DD7-9E7E-E68173EA180E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3449,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3554,39 +3548,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,39 +3593,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,39 +3638,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>46026</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3708,13 +3702,13 @@
         <v>29017</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -3723,13 +3717,13 @@
         <v>75044</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3738,13 @@
         <v>18954</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3759,13 +3753,13 @@
         <v>15294</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3774,13 +3768,13 @@
         <v>34248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3842,13 @@
         <v>23756</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3863,13 +3857,13 @@
         <v>28162</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3878,13 +3872,13 @@
         <v>51918</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3893,13 @@
         <v>11628</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3914,13 +3908,13 @@
         <v>8009</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3929,10 +3923,10 @@
         <v>19638</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>218</v>
@@ -4301,7 +4295,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4328,13 +4322,13 @@
         <v>23683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4343,13 +4337,13 @@
         <v>53127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4358,13 @@
         <v>11368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4379,13 +4373,13 @@
         <v>5128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4394,13 +4388,13 @@
         <v>16495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4450,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4468,13 +4462,13 @@
         <v>36179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4483,13 +4477,13 @@
         <v>28294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4498,13 +4492,13 @@
         <v>64473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4513,13 @@
         <v>20616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4534,13 +4528,13 @@
         <v>14008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4549,13 +4543,13 @@
         <v>34624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4605,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4921,7 +4915,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32D7912-8498-4734-B609-A5DD69E09F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A49F484-EB12-4FFE-99BC-75B9B6869B74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5415,7 +5409,7 @@
         <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>3620</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5445,13 +5439,13 @@
         <v>9911</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5460,13 +5454,13 @@
         <v>13530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5528,13 @@
         <v>21189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5549,13 +5543,13 @@
         <v>22123</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5564,13 +5558,13 @@
         <v>43312</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5579,7 @@
         <v>11299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>388</v>
@@ -5707,10 +5701,10 @@
         <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5719,13 +5713,13 @@
         <v>21770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5734,13 @@
         <v>3752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5755,13 +5749,13 @@
         <v>5919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>14</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5770,13 +5764,13 @@
         <v>9670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,7 +5826,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5844,13 +5838,13 @@
         <v>7905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5859,13 +5853,13 @@
         <v>14880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5874,13 +5868,13 @@
         <v>22785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5889,13 @@
         <v>9483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5910,13 +5904,13 @@
         <v>9100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5925,13 +5919,13 @@
         <v>18583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +5981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5999,13 +5993,13 @@
         <v>25012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -6014,13 +6008,13 @@
         <v>31205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6029,13 +6023,13 @@
         <v>56217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6044,13 @@
         <v>29352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6065,13 +6059,13 @@
         <v>21160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -6080,13 +6074,13 @@
         <v>50512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,7 +6136,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6154,13 +6148,13 @@
         <v>35306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6169,13 +6163,13 @@
         <v>51151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -6184,13 +6178,13 @@
         <v>86458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,10 +6232,10 @@
         <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6303,13 @@
         <v>154709</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -6324,13 +6318,13 @@
         <v>192413</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -6339,13 +6333,13 @@
         <v>347122</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6354,13 @@
         <v>102337</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -6375,13 +6369,13 @@
         <v>97279</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6390,13 +6384,13 @@
         <v>199616</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6446,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB2D4FC8-B210-43D4-AC02-49EE776FF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A62D44-0482-45EF-853C-04705CB3970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{995E3D4C-A409-4705-BF0A-F55BBA350470}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0E9B765-2047-4FC5-9BC1-BC803A332F88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>62,92%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>37,08%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>42,65%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>77,98%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,7 +196,7 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>67,13%</t>
+    <t>69,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -205,19 +205,19 @@
     <t>58,98%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>7,22%</t>
@@ -226,25 +226,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,87%</t>
+    <t>30,1%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -253,55 +253,55 @@
     <t>67,59%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -310,49 +310,55 @@
     <t>62,88%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>59,14%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>77,71%</t>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -361,55 +367,55 @@
     <t>69,78%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -418,55 +424,55 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>86,46%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -475,1015 +481,979 @@
     <t>75,68%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>14,38%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>52,46%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>40,75%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>66,09%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>45,46%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>46,01%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>52,67%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
   </si>
   <si>
     <t>53,99%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>52,97%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>64,21%</t>
   </si>
   <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>47,03%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633E52AF-7293-4012-A7A1-6EE3B798220C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A010B292-F69C-422A-BED9-0953295595D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,10 +2642,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2660,13 @@
         <v>5387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2705,13 +2675,13 @@
         <v>6022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2720,13 +2690,13 @@
         <v>11409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2752,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2794,13 +2764,13 @@
         <v>11589</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2809,13 +2779,13 @@
         <v>11508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2824,13 +2794,13 @@
         <v>23097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2815,13 @@
         <v>5020</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2860,13 +2830,13 @@
         <v>4294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2875,13 +2845,13 @@
         <v>9314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2907,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2949,13 +2919,13 @@
         <v>38982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2964,13 +2934,13 @@
         <v>33338</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -2979,13 +2949,13 @@
         <v>72320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2970,13 @@
         <v>8964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3015,13 +2985,13 @@
         <v>5222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3030,13 +3000,13 @@
         <v>14186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3062,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3104,13 +3074,13 @@
         <v>46583</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3119,13 +3089,13 @@
         <v>51590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -3134,13 +3104,13 @@
         <v>98173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3125,13 @@
         <v>14969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3426,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80EDD17-93E4-4DD7-9E7E-E68173EA180E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181D7F7-EB00-4C07-944D-37869CB06FC8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3693,7 +3663,7 @@
         <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3702,13 +3672,13 @@
         <v>29017</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -3717,13 +3687,13 @@
         <v>75044</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3708,13 @@
         <v>18954</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3753,13 +3723,13 @@
         <v>15294</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3768,13 +3738,13 @@
         <v>34248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3812,13 @@
         <v>23756</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3857,13 +3827,13 @@
         <v>28162</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3872,13 +3842,13 @@
         <v>51918</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3863,13 @@
         <v>11628</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3908,13 +3878,13 @@
         <v>8009</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3923,13 +3893,13 @@
         <v>19638</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3967,13 @@
         <v>39186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4012,13 +3982,13 @@
         <v>53264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4027,13 +3997,13 @@
         <v>92450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4018,13 @@
         <v>18645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4063,13 +4033,13 @@
         <v>16472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4078,13 +4048,13 @@
         <v>35117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4122,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4167,13 +4137,13 @@
         <v>14699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4182,13 +4152,13 @@
         <v>33818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4173,13 @@
         <v>6852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4218,13 +4188,13 @@
         <v>7037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4233,13 +4203,13 @@
         <v>13889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4265,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4307,13 +4277,13 @@
         <v>29443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4322,13 +4292,13 @@
         <v>23683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4337,13 +4307,13 @@
         <v>53127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4328,13 @@
         <v>11368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4373,13 +4343,13 @@
         <v>5128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4388,13 +4358,13 @@
         <v>16495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4420,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4462,13 +4432,13 @@
         <v>36179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4477,13 +4447,13 @@
         <v>28294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4492,13 +4462,13 @@
         <v>64473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4483,13 @@
         <v>20616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4528,13 +4498,13 @@
         <v>14008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4543,13 +4513,13 @@
         <v>34624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4575,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4617,13 +4587,13 @@
         <v>29216</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4632,13 +4602,13 @@
         <v>35476</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4647,13 +4617,13 @@
         <v>64693</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4638,13 @@
         <v>10131</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -4683,13 +4653,13 @@
         <v>16415</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4698,13 +4668,13 @@
         <v>26546</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4742,13 @@
         <v>222927</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -4787,13 +4757,13 @@
         <v>212595</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>402</v>
@@ -4802,13 +4772,13 @@
         <v>435522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4793,13 @@
         <v>98194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -4838,13 +4808,13 @@
         <v>82363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -4853,13 +4823,13 @@
         <v>180557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A49F484-EB12-4FFE-99BC-75B9B6869B74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B833222B-286A-4B88-9928-267BFA76C707}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5063,13 +5033,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5078,13 +5048,13 @@
         <v>17795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5093,13 +5063,13 @@
         <v>33934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5084,13 @@
         <v>15870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5129,13 +5099,13 @@
         <v>6795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5144,13 +5114,13 @@
         <v>22665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5188,13 @@
         <v>23584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5233,13 +5203,13 @@
         <v>29130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5248,13 +5218,13 @@
         <v>52714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5239,13 @@
         <v>10987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5284,13 +5254,13 @@
         <v>9548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5299,13 +5269,13 @@
         <v>20535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5343,13 @@
         <v>15342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5388,13 +5358,13 @@
         <v>14590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5403,13 +5373,13 @@
         <v>29933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5394,13 @@
         <v>3620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5439,13 +5409,13 @@
         <v>9911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5454,13 +5424,13 @@
         <v>13530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5498,13 @@
         <v>21189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5543,13 +5513,13 @@
         <v>22123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5558,13 +5528,13 @@
         <v>43312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5549,13 @@
         <v>11299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5594,13 +5564,13 @@
         <v>4634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5609,13 +5579,13 @@
         <v>15933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5653,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5698,13 +5668,13 @@
         <v>11538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5713,13 +5683,13 @@
         <v>21770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5704,13 @@
         <v>3752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5749,13 +5719,13 @@
         <v>5919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5764,13 +5734,13 @@
         <v>9670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +5796,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5838,13 +5808,13 @@
         <v>7905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5853,13 +5823,13 @@
         <v>14880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5868,13 +5838,13 @@
         <v>22785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5859,13 @@
         <v>9483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5904,13 +5874,13 @@
         <v>9100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5919,13 +5889,13 @@
         <v>18583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +5951,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5993,13 +5963,13 @@
         <v>25012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -6008,13 +5978,13 @@
         <v>31205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6023,13 +5993,13 @@
         <v>56217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6014,13 @@
         <v>29352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6059,13 +6029,13 @@
         <v>21160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -6074,13 +6044,13 @@
         <v>50512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6106,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6148,13 +6118,13 @@
         <v>35306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6163,13 +6133,13 @@
         <v>51151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -6178,13 +6148,13 @@
         <v>86458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6169,13 @@
         <v>17974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -6214,13 +6184,13 @@
         <v>30214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6229,13 +6199,13 @@
         <v>48188</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6273,13 @@
         <v>154709</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -6318,13 +6288,13 @@
         <v>192413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -6333,13 +6303,13 @@
         <v>347122</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6324,13 @@
         <v>102337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -6369,13 +6339,13 @@
         <v>97279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6384,13 +6354,13 @@
         <v>199616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A62D44-0482-45EF-853C-04705CB3970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD14D376-1173-4358-88DA-4384E2CB09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0E9B765-2047-4FC5-9BC1-BC803A332F88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17F104C3-F9CB-4BFA-913B-1D2B87B455AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="484">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -70,1390 +70,1426 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A010B292-F69C-422A-BED9-0953295595D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001DD356-FC3D-46AE-8BF5-46643737A842}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3077,10 +3113,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3089,13 +3125,13 @@
         <v>51590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -3104,13 +3140,13 @@
         <v>98173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3161,13 @@
         <v>14969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3140,13 +3176,13 @@
         <v>18498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -3155,13 +3191,13 @@
         <v>33467</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3265,13 @@
         <v>170424</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -3244,13 +3280,13 @@
         <v>158002</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>321</v>
@@ -3259,13 +3295,13 @@
         <v>328425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3316,13 @@
         <v>56296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -3295,13 +3331,13 @@
         <v>58146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -3310,13 +3346,13 @@
         <v>114443</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3408,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181D7F7-EB00-4C07-944D-37869CB06FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE723AC-8783-4136-83EB-3867B36A1899}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,39 +3554,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,39 +3599,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,39 +3644,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3693,13 @@
         <v>46026</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3672,13 +3708,13 @@
         <v>29017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -3687,13 +3723,13 @@
         <v>75044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3744,13 @@
         <v>18954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3723,13 +3759,13 @@
         <v>15294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3738,13 +3774,13 @@
         <v>34248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3848,13 @@
         <v>23756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3827,13 +3863,13 @@
         <v>28162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3842,13 +3878,13 @@
         <v>51918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3899,13 @@
         <v>11628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3878,13 +3914,13 @@
         <v>8009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3893,13 +3929,13 @@
         <v>19638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4003,13 @@
         <v>39186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3982,13 +4018,13 @@
         <v>53264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3997,13 +4033,13 @@
         <v>92450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4054,13 @@
         <v>18645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4033,13 +4069,13 @@
         <v>16472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -4048,13 +4084,13 @@
         <v>35117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4158,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4137,13 +4173,13 @@
         <v>14699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4152,13 +4188,13 @@
         <v>33818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4209,13 @@
         <v>6852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4188,13 +4224,13 @@
         <v>7037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4203,13 +4239,13 @@
         <v>13889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4313,13 @@
         <v>29443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4292,13 +4328,13 @@
         <v>23683</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4307,13 +4343,13 @@
         <v>53127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4364,13 @@
         <v>11368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4343,13 +4379,13 @@
         <v>5128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4358,13 +4394,13 @@
         <v>16495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4468,13 @@
         <v>36179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4447,13 +4483,13 @@
         <v>28294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4462,13 +4498,13 @@
         <v>64473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4519,13 @@
         <v>20616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4498,13 +4534,13 @@
         <v>14008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4513,13 +4549,13 @@
         <v>34624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4623,13 @@
         <v>29216</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4602,13 +4638,13 @@
         <v>35476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4617,13 +4653,13 @@
         <v>64693</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4674,13 @@
         <v>10131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -4653,13 +4689,13 @@
         <v>16415</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4668,13 +4704,13 @@
         <v>26546</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4778,13 @@
         <v>222927</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -4757,13 +4793,13 @@
         <v>212595</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>402</v>
@@ -4772,13 +4808,13 @@
         <v>435522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4829,13 @@
         <v>98194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -4808,13 +4844,13 @@
         <v>82363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -4823,13 +4859,13 @@
         <v>180557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4921,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B833222B-286A-4B88-9928-267BFA76C707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EDA23-75E3-478D-99FA-4A069C473096}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5069,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5048,13 +5084,13 @@
         <v>17795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5063,13 +5099,13 @@
         <v>33934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5120,13 @@
         <v>15870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5099,13 +5135,13 @@
         <v>6795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5114,13 +5150,13 @@
         <v>22665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5224,13 @@
         <v>23584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5203,13 +5239,13 @@
         <v>29130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5218,13 +5254,13 @@
         <v>52714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5275,13 @@
         <v>10987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5254,13 +5290,13 @@
         <v>9548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5269,13 +5305,13 @@
         <v>20535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5379,13 @@
         <v>15342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5358,13 +5394,13 @@
         <v>14590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5373,13 +5409,13 @@
         <v>29933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5430,13 @@
         <v>3620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5409,13 +5445,13 @@
         <v>9911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5424,13 +5460,13 @@
         <v>13530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5534,13 @@
         <v>21189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5513,13 +5549,13 @@
         <v>22123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5528,13 +5564,13 @@
         <v>43312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5585,13 @@
         <v>11299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5564,13 +5600,13 @@
         <v>4634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5579,13 +5615,13 @@
         <v>15933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5689,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5668,13 +5704,13 @@
         <v>11538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5683,13 +5719,13 @@
         <v>21770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5740,13 @@
         <v>3752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5719,13 +5755,13 @@
         <v>5919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5734,13 +5770,13 @@
         <v>9670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5844,13 @@
         <v>7905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5823,13 +5859,13 @@
         <v>14880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5838,13 +5874,13 @@
         <v>22785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5895,13 @@
         <v>9483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5874,13 +5910,13 @@
         <v>9100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5889,13 +5925,13 @@
         <v>18583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5999,13 @@
         <v>25012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -5978,13 +6014,13 @@
         <v>31205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5993,13 +6029,13 @@
         <v>56217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6050,13 @@
         <v>29352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6029,13 +6065,13 @@
         <v>21160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -6044,13 +6080,13 @@
         <v>50512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6154,13 @@
         <v>35306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6133,13 +6169,13 @@
         <v>51151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -6148,13 +6184,13 @@
         <v>86458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6205,13 @@
         <v>17974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -6184,13 +6220,13 @@
         <v>30214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6199,13 +6235,13 @@
         <v>48188</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6309,13 @@
         <v>154709</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -6288,13 +6324,13 @@
         <v>192413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -6303,13 +6339,13 @@
         <v>347122</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6360,13 @@
         <v>102337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -6339,13 +6375,13 @@
         <v>97279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6354,13 +6390,13 @@
         <v>199616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6452,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD14D376-1173-4358-88DA-4384E2CB09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A648F9-166C-4762-B2B4-19DAFF0474F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17F104C3-F9CB-4BFA-913B-1D2B87B455AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C3426817-E0DD-4C1A-BC8B-F11965CFB995}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="501">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -592,7 +592,58 @@
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>70,83%</t>
@@ -697,58 +748,58 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>73,62%</t>
@@ -1901,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001DD356-FC3D-46AE-8BF5-46643737A842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C82BFF0-07FC-4A6A-A66A-F715E3D3C245}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3432,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE723AC-8783-4136-83EB-3867B36A1899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00868A3-F459-492C-8FA3-EEE57CAAF7C1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3550,43 +3601,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21163</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>23057</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44221</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,43 +3652,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13282</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9012</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22294</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,43 +3703,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>34445</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>32069</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="N6" s="7">
+        <v>66515</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3762,13 @@
         <v>46026</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3708,13 +3777,13 @@
         <v>29017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -3723,13 +3792,13 @@
         <v>75044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3813,13 @@
         <v>18954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3759,13 +3828,13 @@
         <v>15294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3774,13 +3843,13 @@
         <v>34248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3917,13 @@
         <v>23756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3863,13 +3932,13 @@
         <v>28162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -3878,10 +3947,10 @@
         <v>51918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>78</v>
@@ -3899,13 +3968,13 @@
         <v>11628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3914,13 +3983,13 @@
         <v>8009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3929,13 +3998,13 @@
         <v>19638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,49 +4066,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>39186</v>
+        <v>18022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>53264</v>
+        <v>30207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>92450</v>
+        <v>48229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,49 +4117,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>18645</v>
+        <v>5364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>16472</v>
+        <v>7460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>35117</v>
+        <v>12823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>57831</v>
+        <v>23386</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4114,10 +4183,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I15" s="7">
-        <v>69736</v>
+        <v>37667</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4129,10 +4198,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="N15" s="7">
-        <v>127567</v>
+        <v>61052</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4158,13 +4227,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4173,13 +4242,13 @@
         <v>14699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4188,13 +4257,13 @@
         <v>33818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4278,13 @@
         <v>6852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4224,13 +4293,13 @@
         <v>7037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4239,13 +4308,13 @@
         <v>13889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4382,13 @@
         <v>29443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4331,10 +4400,10 @@
         <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4343,13 +4412,13 @@
         <v>53127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4433,13 @@
         <v>11368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4382,10 +4451,10 @@
         <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4394,13 +4463,13 @@
         <v>16495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4537,13 @@
         <v>36179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4483,13 +4552,13 @@
         <v>28294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4498,13 +4567,13 @@
         <v>64473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4588,13 @@
         <v>20616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4534,13 +4603,13 @@
         <v>14008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -4549,13 +4618,13 @@
         <v>34624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4692,13 @@
         <v>29216</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -4638,13 +4707,13 @@
         <v>35476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4653,13 +4722,13 @@
         <v>64693</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4743,13 @@
         <v>10131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -4689,13 +4758,13 @@
         <v>16415</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4704,13 +4773,13 @@
         <v>26546</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4847,13 @@
         <v>222927</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -4793,13 +4862,13 @@
         <v>212595</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>402</v>
@@ -4808,13 +4877,13 @@
         <v>435522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4898,13 @@
         <v>98194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -4844,13 +4913,13 @@
         <v>82363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>171</v>
@@ -4859,13 +4928,13 @@
         <v>180557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +5014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EDA23-75E3-478D-99FA-4A069C473096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F7CDB3-A3C7-471F-B86C-7D0918304391}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4962,7 +5031,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5069,13 +5138,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -5084,13 +5153,13 @@
         <v>17795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5099,13 +5168,13 @@
         <v>33934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5189,13 @@
         <v>15870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5135,13 +5204,13 @@
         <v>6795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5150,13 +5219,13 @@
         <v>22665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5293,13 @@
         <v>23584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5239,13 +5308,13 @@
         <v>29130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5254,13 +5323,13 @@
         <v>52714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5344,13 @@
         <v>10987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5290,13 +5359,13 @@
         <v>9548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5305,13 +5374,13 @@
         <v>20535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5448,13 @@
         <v>15342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5394,13 +5463,13 @@
         <v>14590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5409,13 +5478,13 @@
         <v>29933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5499,13 @@
         <v>3620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5445,13 +5514,13 @@
         <v>9911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5460,13 +5529,13 @@
         <v>13530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,10 +5606,10 @@
         <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5549,13 +5618,13 @@
         <v>22123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5564,13 +5633,13 @@
         <v>43312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,10 +5657,10 @@
         <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5600,13 +5669,13 @@
         <v>4634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5615,13 +5684,13 @@
         <v>15933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5758,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5704,13 +5773,13 @@
         <v>11538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5719,13 +5788,13 @@
         <v>21770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5809,13 @@
         <v>3752</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5755,10 +5824,10 @@
         <v>5919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>14</v>
@@ -5770,13 +5839,13 @@
         <v>9670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5913,13 @@
         <v>7905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5859,13 +5928,13 @@
         <v>14880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5874,13 +5943,13 @@
         <v>22785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5964,13 @@
         <v>9483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5910,13 +5979,13 @@
         <v>9100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5925,13 +5994,13 @@
         <v>18583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6068,13 @@
         <v>25012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -6014,13 +6083,13 @@
         <v>31205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6029,13 +6098,13 @@
         <v>56217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6119,13 @@
         <v>29352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6065,13 +6134,13 @@
         <v>21160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -6080,13 +6149,13 @@
         <v>50512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6223,13 @@
         <v>35306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -6169,13 +6238,13 @@
         <v>51151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -6184,13 +6253,13 @@
         <v>86458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6274,13 @@
         <v>17974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -6220,13 +6289,13 @@
         <v>30214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6235,13 +6304,13 @@
         <v>48188</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6378,13 @@
         <v>154709</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -6324,13 +6393,13 @@
         <v>192413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M28" s="7">
         <v>333</v>
@@ -6339,13 +6408,13 @@
         <v>347122</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6429,13 @@
         <v>102337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -6375,13 +6444,13 @@
         <v>97279</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>183</v>
@@ -6390,13 +6459,13 @@
         <v>199616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
